--- a/AutomationCucumber/src/test/resources/DataCucu.xlsx
+++ b/AutomationCucumber/src/test/resources/DataCucu.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\AutomationCucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6144" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="5664" tabRatio="580" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="ProductName" sheetId="2" r:id="rId2"/>
-    <sheet name="InvalidFields" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="8" r:id="rId2"/>
+    <sheet name="ProductName" sheetId="2" r:id="rId3"/>
+    <sheet name="InvalidEmail" sheetId="6" r:id="rId4"/>
+    <sheet name="ValidEmail" sheetId="7" r:id="rId5"/>
+    <sheet name="InvalidFields" sheetId="3" r:id="rId6"/>
+    <sheet name="BuyProduct" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ValidEmail!$A$1:$A$3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Email</t>
   </si>
@@ -118,12 +125,6 @@
     <t>pablolibertrand@hotmail.com</t>
   </si>
   <si>
-    <t>pablobertrand@hotmail.com</t>
-  </si>
-  <si>
-    <t>619 WestwoodCenter Dr Suite #300</t>
-  </si>
-  <si>
     <t>sadsada@hotmail.com</t>
   </si>
   <si>
@@ -140,13 +141,28 @@
   </si>
   <si>
     <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>robertobebertrand@hotmail.com</t>
+  </si>
+  <si>
+    <t>robertongo@hotmail.com</t>
+  </si>
+  <si>
+    <t>InvalidEmail</t>
+  </si>
+  <si>
+    <t>ValidEmail</t>
+  </si>
+  <si>
+    <t>robertingo@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +182,20 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,12 +314,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -298,12 +356,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1515,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,8 +1665,8 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
+      <c r="A2" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -1652,8 +1721,8 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
+      <c r="A3" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -1680,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>24</v>
@@ -1689,7 +1758,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="5">
-        <v>22183</v>
+        <v>22182</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>26</v>
@@ -1708,31 +1777,65 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="6"/>
+      <c r="A4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1996</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5">
+        <v>22182</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="7">
+        <v>6699838822</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>6691999751</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1745,9 +1848,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1757,13 +1895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>36</v>
+      <c r="A1" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>37</v>
+      <c r="A2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1909,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="robertoek@hotmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A3"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1838,8 +2052,8 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>32</v>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>546523165</v>
@@ -1857,15 +2071,15 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R2" s="6"/>
     </row>
@@ -1878,4 +2092,134 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1996</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="11">
+        <v>22182</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12">
+        <v>6699838822</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>6691999751</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationCucumber/src/test/resources/DataCucu.xlsx
+++ b/AutomationCucumber/src/test/resources/DataCucu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="5664" tabRatio="580" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="5664" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Email</t>
   </si>
@@ -143,19 +143,22 @@
     <t>Faded Short Sleeve T-shirts</t>
   </si>
   <si>
-    <t>robertobebertrand@hotmail.com</t>
-  </si>
-  <si>
-    <t>robertongo@hotmail.com</t>
-  </si>
-  <si>
     <t>InvalidEmail</t>
   </si>
   <si>
-    <t>ValidEmail</t>
-  </si>
-  <si>
-    <t>robertingo@hotmail.com</t>
+    <t>robertongon@hotmail.com</t>
+  </si>
+  <si>
+    <t>robertingolingo@hotmail.com</t>
+  </si>
+  <si>
+    <t>robertonbebertrand@hotmail.com</t>
+  </si>
+  <si>
+    <t>robertongolo@hotmail.com</t>
+  </si>
+  <si>
+    <t>robertingot@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1266,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R4" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R3" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Email" dataDxfId="39" dataCellStyle="Hipervínculo"/>
     <tableColumn id="2" name="FirstName" dataDxfId="38"/>
@@ -1582,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,8 +1668,8 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>36</v>
+      <c r="A2" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -1773,75 +1776,18 @@
         <v>6691999751</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="5">
-        <v>22182</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="7">
-        <v>6699838822</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>6691999751</v>
-      </c>
-      <c r="R4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1851,14 +1797,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>3</v>
@@ -1919,12 +1865,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1940,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,31 +1901,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>36</v>
+      <c r="A2" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>37</v>
+      <c r="A3" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>40</v>
+      <c r="A4" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A3"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
